--- a/TestData/Add_Employee.xlsx
+++ b/TestData/Add_Employee.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\PilotProjectfromgit\Team2_OrangeHRM\TestData\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Git\Team2_OrangeHRM\TestData\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C97A01F7-03C3-4836-AD88-11D52FB95EC1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3A28B641-F2FF-4833-A9E9-E7BF69416E37}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="11">
   <si>
     <t>${fname}</t>
   </si>
@@ -375,10 +375,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:C7"/>
+  <dimension ref="A1:C4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E5" sqref="E5"/>
+      <selection activeCell="A4" sqref="A4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -429,16 +429,6 @@
         <v>10</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A5" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="C7" t="s">
-        <v>7</v>
-      </c>
-    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/TestData/Add_Employee.xlsx
+++ b/TestData/Add_Employee.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Git\Team2_OrangeHRM\TestData\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3A28B641-F2FF-4833-A9E9-E7BF69416E37}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0253459E-C43E-44E8-BBC8-0BCBA5E82AA2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -378,7 +378,7 @@
   <dimension ref="A1:C4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A4" sqref="A4"/>
+      <selection activeCell="E5" sqref="E5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>

--- a/TestData/Add_Employee.xlsx
+++ b/TestData/Add_Employee.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\PilotProjectfromgit\Team2_OrangeHRM\TestData\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Git\Team2_OrangeHRM\Team2_OrangeHRM\TestData\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C97A01F7-03C3-4836-AD88-11D52FB95EC1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{352FA9DE-E725-46AC-B577-A7339EBCA025}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1152" yWindow="1152" windowWidth="17352" windowHeight="9792" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="AddEmployee" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="11">
   <si>
     <t>${fname}</t>
   </si>
@@ -375,10 +375,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:C7"/>
+  <dimension ref="A1:C4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E5" sqref="E5"/>
+      <selection activeCell="A4" sqref="A4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -429,16 +429,6 @@
         <v>10</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A5" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="C7" t="s">
-        <v>7</v>
-      </c>
-    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
